--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Anzeigen" sheetId="1" r:id="rId1"/>
     <sheet name="Rohdaten" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Anzeigen!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Anzeigen!$A$1:$M$13</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Zeitung</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lange Str. </t>
-  </si>
-  <si>
-    <t>Flohmark</t>
   </si>
   <si>
     <t>074737871</t>
@@ -211,6 +208,103 @@
   </si>
   <si>
     <t>Silcherstr. 104</t>
+  </si>
+  <si>
+    <t>Neustadt</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Hausflohmarkt-2206-u-290619in-altem-Bauernhaus-71134-v1-w1024-h-m130689.jpg</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt 22.06. u. 29.06.19
+in altem Bauernhaus
+71134 Aidlingen, Hauptstraße 79
+Viel Antikes aus ca. 100 Jahren.
+Altes Spielzeug, Bilder, Bestecke, usw.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-ab-Mi-196-bis-So-306-ab-10-Uhr-v1-w1024-h-m130699.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung ab Mi., 19.6. bis
+So., 30.6., ab 10 Uhr: Roßbergstr. 3 in
+72411 Bodelshausen, 0176 30784272</t>
+  </si>
+  <si>
+    <t>Aidlingen</t>
+  </si>
+  <si>
+    <t>Hauptstraße</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt 22.06. u. 29.06.19 in altem Bauernhaus 71134 Aidlingen, Hauptstraße 79 Viel Antikes aus ca. 100 Jahren. Altes Spielzeug, Bilder, Bestecke, usw.</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung ab Mi., 19.6. bis So., 30.6., ab 10 Uhr: Roßbergstr. 3 in 72411 Bodelshausen, 0176 30784272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roßbergstr. </t>
+  </si>
+  <si>
+    <t>0176 30784272</t>
+  </si>
+  <si>
+    <t>Bodelshausen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50395433.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt am — 22.6.19
+von 9 — 16 Uhr, Eichendorffstr. 76.
+Sulzoach Murr, Haushaltswaren al
+er Art, Puppen und 2 Rasenmäher</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50409991.jpg</t>
+  </si>
+  <si>
+    <t>Mlohmarkt, Porschring 20, 71404
+Korb, am Sa. 22.6.19 ab 11 Uhr,
+Elektroartikel um</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50405401.jpg</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung am 22.6.18
+von 9 —16Uhr, Schillerstr12, 71384
+Weinstadt — Schnait</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt am — 22.6.19 von 9 — 16 Uhr, Eichendorffstr. 76. Sulzoach Murr, Haushaltswaren aler Art, Puppen und 2 Rasenmäher</t>
+  </si>
+  <si>
+    <t>Mlohmarkt, Porschring 20, 71404 Korb, am Sa. 22.6.19 ab 11 Uhr, Elektroartikel um</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung am 22.6.18 von 9 —16Uhr, Schillerstr12, 71384 Weinstadt — Schnait</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt</t>
+  </si>
+  <si>
+    <t>Eichendorffstr</t>
+  </si>
+  <si>
+    <t>Sulzbach Murr</t>
+  </si>
+  <si>
+    <t>Flohmarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porschring </t>
+  </si>
+  <si>
+    <t>Schillerstr</t>
+  </si>
+  <si>
+    <t>Weinstadt - Schnait</t>
   </si>
 </sst>
 </file>
@@ -263,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -276,6 +370,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -578,22 +673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
@@ -632,7 +728,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
@@ -641,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43629</v>
       </c>
@@ -649,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4">
         <v>43631</v>
@@ -670,21 +766,21 @@
         <v>58</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43629</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>43631</v>
@@ -696,30 +792,30 @@
         <v>0.625</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
       </c>
       <c r="J3">
         <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43629</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>43631</v>
@@ -728,27 +824,27 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43629</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>43631</v>
@@ -760,27 +856,27 @@
         <v>0.75</v>
       </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43629</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4">
         <v>43624</v>
@@ -792,27 +888,27 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
         <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43629</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>43631</v>
@@ -823,28 +919,31 @@
       <c r="F7" s="5">
         <v>0.66666666666666663</v>
       </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>26</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43629</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
         <v>43631</v>
@@ -856,105 +955,323 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>78614</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43638</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>71134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>79</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43635</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>72411</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>71384</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M8"/>
+  <autoFilter ref="A1:M13">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2019" month="6" day="22" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t>Zeitung</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Hofflohmarkt, Sa. 29.6.19, in ES, Olgastr. 63-70 v. 10-16 Uhr. Verkauft wird von mehreren Familien.</t>
   </si>
   <si>
-    <t>Hoffflohmarkt</t>
-  </si>
-  <si>
     <t>Wernau</t>
   </si>
   <si>
@@ -431,6 +428,173 @@
   </si>
   <si>
     <t>Winnenden</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt am Samstag 06.07. in Owen, Teckstr. 23 von 9-16 Uhr</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung Sa. 06.07., 10—
+16 Uhr, Tü.—Lustnau, Daimlerstr. 5</t>
+  </si>
+  <si>
+    <t>Teckstr.</t>
+  </si>
+  <si>
+    <t>Daimlerstr.</t>
+  </si>
+  <si>
+    <t>Lustnau</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>SCHNÄPPCHENfohmarkt von
+privat Ales muss raus!
+e 0sor20re,9—12 Unr
+Auerhahnei1, 73614 Schorndort</t>
+  </si>
+  <si>
+    <t>Große HaushaltsauflösungfGsre—
+genfhmarkt Neustadt, Starenweg
+20 Sa. 6.7, 916 Uhr weiere Ter—
+mine n. Abspr.01 72/ 98882 10</t>
+  </si>
+  <si>
+    <t>untohnant am Sansndeo”
+Indren lecete zi ven ie U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auerhahnestr. </t>
+  </si>
+  <si>
+    <t>0172/9888210</t>
+  </si>
+  <si>
+    <t>Eßlinger Echo</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt.JPG</t>
+  </si>
+  <si>
+    <t>Privater Flohmarkt
+Gartenmöbel aus Holz/Metall, Flach—
+bild—TV, 6 Esszi.—Stühle Eiche hell, Olge—
+mälde, Bücher, Geschirr, Handtaschen,
+Schuhe, Kleider, Trachten u. Landhaus—
+mode, Ricoh Kamara m. Teli und Weit—
+winkelobjektiv. Am 5./6.7. von 10—16
+Uhr Hügelstr. 19, Pforzheim</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt1.JPG</t>
+  </si>
+  <si>
+    <t>Gruschtelmarkt adieu
+Deshalb großer Hofflohmarkt bei
+langjähriger Gruschtlerin
+Antik, Ausgefallen,Shabby‚Vintage,
+50er/60er//0er, Stühle, Fenster,
+Garten,Truhen,Leitern
+Sa. 06.07.2019 v. 10—18h
+Mühlstrasse 11, 75196 Singen
+UND
+Pforzheimerstr. 43, Wilferdingen</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt3.JPG</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung
+Flohmarkt: Heimtextilien Kleidung
+(w 36—38/40) Tücher, Taschen, Wä—
+sche, Möbel;Hauhaltswaren, Dekoar—
+tikel, Vasen, Gemälde,Elektroartikel
+uvm. Sa. 29. Juni 2019 10—18 Uhr
+Sa. 30. Juni 2019 11—16 Uhr
+Senefelderstr. 4 Pforzheim
+Telefon 0 72 31 / 27 22 6</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt4.JPG</t>
+  </si>
+  <si>
+    <t>Privater Flohmarkt
+Gartenmöbel aus Holz/Metall, Flach—
+bild—TV, 6 Esszi.—Stühle Eiche hell, Ölge—
+mälde, Bücher, Geschirr, Handtaschen
+Schuhe, Kleider, Trachten u. Landhaus—
+mode. Am 28./29.6. von 10—16 Uhr
+Hügelstr. 19, Pforzheim</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt5.JPG</t>
+  </si>
+  <si>
+    <t>Privater Flohmarkt
+Do. 27.6. — Sa. 29.6.19 v. 10 — 18
+Uhr in Wurmberg, Pforzheimer
+Str. 2 Infos unter:
+(0 70 44) 43950 Angeboten wer—
+den u.a. : Puppen, Bücher, Co—
+mics , Modellautos Sammleredition
+u. einzeln, Hausrat.</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt6.JPG</t>
+  </si>
+  <si>
+    <t>Flohmarkt
+Spielsachen 70er J., z.B. Schlümpfe,
+Da.—Bekleidg., HH—Gegenstände, z.T.
+60er J Werkzeug uvm. am Sa,,
+6. 7. 2019 von 11—13 Uhr,
+Wiesenstr. 5 — 75331 Engelsbrand</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt7.JPG</t>
+  </si>
+  <si>
+    <t>Großer Hofflohmarkt Wann:
+06.07.2019 — 10:00 — 16:00 Uhr.
+Wo:Stuttgarter Str. 48, 71701
+Schwieberdingen</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt8.JPG</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung, Sa.
+06.07. von 10:00 bis 12:00 in
+LB— Weststadt.
+Tel. (0 15 78) 0 48 28 74</t>
+  </si>
+  <si>
+    <t>Pforzheimer Zeitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hügelstr. </t>
+  </si>
+  <si>
+    <t>Pforzheim</t>
+  </si>
+  <si>
+    <t>Wiesenstr.</t>
+  </si>
+  <si>
+    <t>Engelsbrand</t>
+  </si>
+  <si>
+    <t>Schwieberdingen</t>
+  </si>
+  <si>
+    <t>Ludwigsburger Wochenblatt</t>
+  </si>
+  <si>
+    <t>Hofflohmarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuttgarter Str. </t>
   </si>
 </sst>
 </file>
@@ -802,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1048574"/>
+  <dimension ref="A1:M1048569"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16:J16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,16 +1477,16 @@
         <v>0.625</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15">
         <v>73249</v>
       </c>
       <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
         <v>89</v>
-      </c>
-      <c r="J15" t="s">
-        <v>90</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>84</v>
@@ -1342,13 +1506,13 @@
         <v>43645</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J16">
         <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s">
         <v>85</v>
@@ -1362,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4">
         <v>43645</v>
@@ -1377,10 +1541,10 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
         <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>94</v>
       </c>
       <c r="M17" t="s">
         <v>86</v>
@@ -1406,16 +1570,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" t="s">
         <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>108</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1438,19 +1602,19 @@
         <v>0.75</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19">
         <v>72119</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1473,16 +1637,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
         <v>111</v>
-      </c>
-      <c r="I20" t="s">
-        <v>112</v>
       </c>
       <c r="J20">
         <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1505,19 +1669,19 @@
         <v>0.625</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21">
         <v>72147</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J21">
         <v>24</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1540,16 +1704,16 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J22">
         <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1572,24 +1736,282 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J23">
         <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="1048574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048574" s="4"/>
+      <c r="A24" s="4">
+        <v>43649</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43649</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43650</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26">
+        <v>73614</v>
+      </c>
+      <c r="I26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43650</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43650</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28">
+        <v>23</v>
+      </c>
+      <c r="M28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4">
+        <v>43651</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29">
+        <v>19</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="4">
+        <v>43652</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30">
+        <v>75331</v>
+      </c>
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="4">
+        <v>43652</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31">
+        <v>71701</v>
+      </c>
+      <c r="I31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
+      </c>
+      <c r="M31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1048569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048569" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M17"/>
@@ -1599,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,62 +2171,167 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1814,6 +2341,14 @@
     <hyperlink ref="A21" r:id="rId3"/>
     <hyperlink ref="A40" r:id="rId4"/>
     <hyperlink ref="A38" r:id="rId5"/>
+    <hyperlink ref="A47" r:id="rId6"/>
+    <hyperlink ref="A49" r:id="rId7"/>
+    <hyperlink ref="A51" r:id="rId8"/>
+    <hyperlink ref="A53" r:id="rId9"/>
+    <hyperlink ref="A55" r:id="rId10"/>
+    <hyperlink ref="A57" r:id="rId11"/>
+    <hyperlink ref="A59" r:id="rId12"/>
+    <hyperlink ref="A61" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Anzeigen" sheetId="1" r:id="rId1"/>
     <sheet name="Rohdaten" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Anzeigen!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Anzeigen!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="277">
   <si>
     <t>Zeitung</t>
   </si>
@@ -595,6 +595,503 @@
   </si>
   <si>
     <t xml:space="preserve">Stuttgarter Str. </t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt, ES-Krummenacker, Hertfelderstr. 28 am
+Samstag, 13.7.19 von 10-18 Uhr.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/HaushaltsaufloesungHier-findet-jeder-was-Moebel-Dekoartikel-v3-w1024-h-m132731.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung Hier findet je—
+der was! Möbel, Dekoartikel, Damen—
+bekleidung, Geschirr, Gartengeräte
+u.v.m. Samstag 13.07.19, 10—18 Uhr,
+Weggentalstr. 17, 72108 Rottenburg.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-am-1307-10-16-Uhr-Tue-Lustnau-v3-w1024-h-m132729.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung am 13.07. von
+10 — 16 Uhr, Tü—Lustnau, Daimlerstr.5</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50450517.jpg</t>
+  </si>
+  <si>
+    <t>Haus— und Garagenflohmarkt aus
+Haushaltsaufösung von antik bis
+modern, Fr. 14.—18, Sa. 09—13,
+Reutestraße 8, Kornen—Rommels—
+hausen. Info: 01 71 333 5926</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50445165.jpg</t>
+  </si>
+  <si>
+    <t>Sa. 13.07. Hof—Flohmarkt, 9 — 19
+Uhr, Oberberken, AdelbergerStr 58.
+wg Auflösung Bauernnof, ALLES
+MUSS RAUS. Dreschegel, Wa—
+genräderKörbe,Tpfe, Kessel,</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50451149.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsflohmarkt!._—auflösung
+Korb, _ Kirchstraße 29 Samslag
+18.07.2019, 8:00</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50450357.jpg</t>
+  </si>
+  <si>
+    <t>Große Haushaltsauflosung/are:
+genfiohmarkt Neustadt, Starenweg
+26, Sa., 13.7, 9—16 Uhr, weitere Ter
+mine n. Abspr. 01 72/9 88 82 10</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50446045.jpg</t>
+  </si>
+  <si>
+    <t>FLOHMARKT 13.07. Winnen—
+den 10—16 Uhr Max——Eyth—Str84
+Kipling Haushalt Nintendo DVD
+Basteln _ KleidungGr42 — Keramik
+Vasen um</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50441400.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung!!
+Am 18.749 von 10—14 Uhrl
+Bierkrüge, Töpfe, Schallplatten,
+Werkzeug etc. 71566 Althätte,
+Im Klösterle 29</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595719_1_orgorg_5d251f6688517.jpg</t>
+  </si>
+  <si>
+    <t>Alles muss raus!
+Komplette Hausräumung. Möbel,
+Hausrat, usw., 19.07.19 u. 20.07.19
+jeweils von 8—19 Uhr.
+7 5203 Königsbach, Schillerstr. 14.</t>
+  </si>
+  <si>
+    <t>Flohmarkt mit Cafe
+am Samstag 13. Juli 2019
+von 11 — 18 Uhr
+Obere Gasse 6 in Stein (Kö—Stein)
+Toller reichhaltiger Flohmarkt
+und leckere hausgemachte Kuchen
+erwarten Sie.
+Mit dem Erlös unterstützen wir ein
+Waisenhaus in Kamerun
+MAHZUKAM e.V.
+Wir freuen uns auf viele Besucher !</t>
+  </si>
+  <si>
+    <t>C:\Users\Hagen\hub\Flohmarkt\Bausteine\Unbenannt2.JPG</t>
+  </si>
+  <si>
+    <t>Hofflohmarkt — BisssingenBlu—
+menstr. 2 am 13.07.2019 großer
+Flohmarkt; _ Antikes, — Steingut,
+Porzelan, Spielzeug, Puppen,
+Gläser,_ el. Kleingeräte, Klei—
+dung, Taschen uvm. Kommen
+und staunen was seit 1900 al—
+les entstanden ist. Tel. (07142)
+30902 ab 9 Uhr od. 0178—
+6951837 ab 9 Uhr</t>
+  </si>
+  <si>
+    <t>Haus— u. Hofflohmarkt, von A—Z,
+wie Autoteile — Zinn. Samstag,
+13.7.19 ab 10 Uhr, in Bi—Bissin—
+gen, Meierhofstr. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hertfelderstr. </t>
+  </si>
+  <si>
+    <t>ES-Krummenacker</t>
+  </si>
+  <si>
+    <t>Rottenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weggentalstr. </t>
+  </si>
+  <si>
+    <t>Rommelshausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reutestraße </t>
+  </si>
+  <si>
+    <t>01713335926</t>
+  </si>
+  <si>
+    <t>Oberberken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelbergerstr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winnenden </t>
+  </si>
+  <si>
+    <t>Max-Eyth-Str</t>
+  </si>
+  <si>
+    <t>Althütte</t>
+  </si>
+  <si>
+    <t>Im Klösterle</t>
+  </si>
+  <si>
+    <t>Königsbach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schillerstr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obere Gasse </t>
+  </si>
+  <si>
+    <t>Königsbach-Stein</t>
+  </si>
+  <si>
+    <t>Südwestpresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (07142)30902 / 0178—6951837 </t>
+  </si>
+  <si>
+    <t>Blumenstr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirchstraße  </t>
+  </si>
+  <si>
+    <t>Bietigheim-Bissingen</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Aufloesung-einer-Schreinerei-v3-w1024-h-m133521.jpg</t>
+  </si>
+  <si>
+    <t>Auflösung einer Schreinerei, Ver—
+kauf von Maschinen, Werkzeug und
+Holz; # 07451 /2306</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50464742.jpg</t>
+  </si>
+  <si>
+    <t>Gﬂragenllohmarkt In Schorndort
+Aichenbachst. 29, (nähe Feuer
+soo), Gies, Parzeﬂan Bücher, Klei
+o eitag u. Samstag</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50462218.jpg</t>
+  </si>
+  <si>
+    <t>Baragentonmarkt 18. — 20.07.19
+n Leutenbach, Tonweg 4, Do u.F
+14.00 — 19.30, Sa 10.00—15.00,Klei—
+dung (Markenart.) , Geschir , Fahr—
+räder, Babysachen u. vieles mehr</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50459926.jpg</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt/Haushaltsauf—
+lösung in Backnang, Friedrich—
+List—Ste. 51 am Samstag 20.72019
+von 10 bis 18 Uhr. Geschir, Mö—
+bei, Bücher, Deko, Werkzeug, al—
+les muss raus</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50461056.jpg</t>
+  </si>
+  <si>
+    <t>Maushaltsauflösung — teinsta
+Beuteslbach, Luitgardstr. 14, Sa
+20.07.19 ab 09.00. Uhr— 16.00
+Uhr.Verkauf von: Möbeln, Lampen,
+Geschirr, Haushaltswaren, Elektro
+ger, Kleidung u Dekoartikeln
+s</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50457803.jpg</t>
+  </si>
+  <si>
+    <t>Großer Flohmarktstand 21.7.19
+BrunnenstetS (schuh—frey) O7182/
+8988 am Welzheimer Straßenfest
++ Stadtfiohmarkt 11—17 Uhr, 2000
+Comics, Pflanzen, Krimskrams,
+Stoffreste, Geschenkartikel, uum.</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50453159.jpg</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung. Ales muss
+raus, Gottleb — Daimier Str. 16.
+71522 Backnang, Sa. 20.7.19 von
+14 — 17 Uhr, Tel. 0160 / 97068964</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Carportflohmarkt-Samstag-20-7-900-1300-Uhr-Lachentalstrasse-v4-w1024-h-m133536.jpg</t>
+  </si>
+  <si>
+    <t>Carportflohmarkt, Samstag, 20. 7.,
+9.00 — 13.00 Uhr, Lachentalstraße
+30/3, 71093 Weil im Schönbuch, alles
+aus Haushaltsbestand</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598110_1_orgorg_5d2e599c6f251.jpg</t>
+  </si>
+  <si>
+    <t>Flohmarkt
+anlässlich einer kompletten Hausräu—
+mung in Kämpfelbach—Ersingen, Tho—
+masbrunnenstr. 5. Angeboten wer—
+den u. a. Bestecke, Tupperschüsseln,
+hochwertiges Goldrandservice, MÖ—
+bei, Kunststoffweinfässer 30 | — 600 |,
+Maischezuber 750 | u. 1250 |, Frei—
+tag, 19. 7., von 15 — 20 Uhr, Samstag,
+20. 7., 10 — 18 Uhr, Sonntag, 21. 7.,
+10 —14 Uhr. Rückfragen unter
+Telefon 0174/3 70 24 17</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598112_1_orgorg_5d2e59ace9590.jpg</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung
+$So. 21.07. 19 von 9 — 15 Uhr,
+Ersingerstr. 14, Ispringen</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5196/2598137_1_orgorg_5d2e59c96bbd7.jpg</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt
+in Niefern, Hippberg 5, am 20.07.19
+ab 9 Uhr. Kommen sie vorbei alles
+muss raus.</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5193/2596674_2_orgorg_5d2e59a70beb0.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung
+gut erhaltenes Allerlei zum Verkauf
+Bilder, Bücher, Geschirr, Kleider,
+Möbel u.v.m.
+am 20.7.19 von 8—12 Uhr.
+Wir freuen uns auf Ihren Besuch in der
+Wilhelmshöhe 7
+7 5433 Maulbronn</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5191/2595719_2_orgorg_5d2913c9467c0.jpg</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung</t>
+  </si>
+  <si>
+    <t>Carportflohmarkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedrich-List-Str. </t>
+  </si>
+  <si>
+    <t>Backnang</t>
+  </si>
+  <si>
+    <t>Beuteslbach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luitgardstr. </t>
+  </si>
+  <si>
+    <t>Gottlieb-Daimier Str.</t>
+  </si>
+  <si>
+    <t>0160 / 97068964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meierhofstr. </t>
+  </si>
+  <si>
+    <t>Aichenbachst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonweg </t>
+  </si>
+  <si>
+    <t>Leutenbach</t>
+  </si>
+  <si>
+    <t>Bissingen</t>
+  </si>
+  <si>
+    <t>Lachentalstraße</t>
+  </si>
+  <si>
+    <t>Weil im Schönbuch</t>
+  </si>
+  <si>
+    <t>Kämpfelbach-Ersingen</t>
+  </si>
+  <si>
+    <t>Thomasbrunnenstr.</t>
+  </si>
+  <si>
+    <t>30/3</t>
+  </si>
+  <si>
+    <t>Ispringen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersingerstr. </t>
+  </si>
+  <si>
+    <t>Niefern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippberg </t>
+  </si>
+  <si>
+    <t>Maulbronn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilhelmshöhe 
+</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt Sa, 20.07.
+Hochw. Retro Möbel, Porzellan,
+Antik, uvm. Hauffstr. 9 in Tamm,
+09 — 16 Uhr, 0159/02572528</t>
+  </si>
+  <si>
+    <t>Hausflohmarkt Buddhas, Eu—
+len, Clowns, Elfen und Bücher.
+In Erdmannhausen, Pflasterstr.
+3/1; Samstag, 20.07., 10—15 Uhr.</t>
+  </si>
+  <si>
+    <t>HOFFLOHMARKT am Samstag
+den 20.07.19 ab 10—16.30 Uhr
+Solitudestr. 30 / Ecke Karlstr.
+in Ludwigsburg</t>
+  </si>
+  <si>
+    <t>Garagen—/Hofflohmarkt
+am20.07.19; von 11 bis 18 Uhr;
+Großsachsenheim, Traunreuter
+Str. 6. Tel. (07147) 708103</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt Bietigheim/Buch,
+Camberleystr. 47. Am 20.7.2019 v.
+10—17 Uhr: Bekleidung, Haushalts—
+waren, Bücher.</t>
+  </si>
+  <si>
+    <t>HOFFLOHMARKT Sonntag 21.7
+Antikes&amp;Altes: Möbel, Lampen,
+Türen, Vintage Kinderwagen/
+buggy, Kinderspielzeug uvm.
+So. 21.07.2019, 10 bis 16 Uhr,
+Horrheim, Alte Schulstrasse 21</t>
+  </si>
+  <si>
+    <t>Hof—Flohmarkt, Sa. 20.7., 10—15 Uhr,
+Schwarzwaldstr. 18, Böblingen</t>
+  </si>
+  <si>
+    <t>Antik—Flohmarkt: „es lohnt sich wirk—
+lich”. Hildrizhauser Str. 7, 71155 Alt—
+dorf</t>
+  </si>
+  <si>
+    <t>Tamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauffstr. </t>
+  </si>
+  <si>
+    <t>0159/02572528</t>
+  </si>
+  <si>
+    <t>Erdmannhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pflasterstr. </t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>Ludwigsburg</t>
+  </si>
+  <si>
+    <t>Solitudestr. / Ecke Karlstr.</t>
+  </si>
+  <si>
+    <t>Großsachsenheim</t>
+  </si>
+  <si>
+    <t>Traunreuter Str.</t>
+  </si>
+  <si>
+    <t>(07147) 708103</t>
+  </si>
+  <si>
+    <t>Bietigheim/Buch,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camberleystr. </t>
+  </si>
+  <si>
+    <t>Horrheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alte Schulstrasse </t>
+  </si>
+  <si>
+    <t>Sindelfinger / Böblinger Zeitung</t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t>Schwarzwaldstr.</t>
+  </si>
+  <si>
+    <t>Altdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hildrizhauser Str. </t>
   </si>
 </sst>
 </file>
@@ -626,12 +1123,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -647,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,6 +1172,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,23 +1484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1048569"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M1048570"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="13" width="72.5703125" customWidth="1"/>
@@ -1029,7 +1548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43629</v>
       </c>
@@ -1064,7 +1583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43629</v>
       </c>
@@ -1099,7 +1618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43629</v>
       </c>
@@ -1128,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43629</v>
       </c>
@@ -1160,7 +1679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43629</v>
       </c>
@@ -1192,7 +1711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43629</v>
       </c>
@@ -1227,7 +1746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43629</v>
       </c>
@@ -1262,7 +1781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43635</v>
       </c>
@@ -1291,7 +1810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43635</v>
       </c>
@@ -1326,7 +1845,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43635</v>
       </c>
@@ -1358,7 +1877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43635</v>
       </c>
@@ -1387,7 +1906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43635</v>
       </c>
@@ -1422,7 +1941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43643</v>
       </c>
@@ -1457,7 +1976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43643</v>
       </c>
@@ -1492,7 +2011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43643</v>
       </c>
@@ -1518,7 +2037,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43643</v>
       </c>
@@ -1550,7 +2069,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43643</v>
       </c>
@@ -1582,7 +2101,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43643</v>
       </c>
@@ -1617,7 +2136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43643</v>
       </c>
@@ -1649,7 +2168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43643</v>
       </c>
@@ -1684,7 +2203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43643</v>
       </c>
@@ -1716,7 +2235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43643</v>
       </c>
@@ -1748,7 +2267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43649</v>
       </c>
@@ -1780,7 +2299,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43649</v>
       </c>
@@ -1812,7 +2331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43650</v>
       </c>
@@ -1847,7 +2366,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43650</v>
       </c>
@@ -1882,7 +2401,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43650</v>
       </c>
@@ -1914,7 +2433,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43651</v>
       </c>
@@ -1946,7 +2465,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43651</v>
       </c>
@@ -1959,6 +2478,12 @@
       <c r="D30" s="4">
         <v>43652</v>
       </c>
+      <c r="E30" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G30" t="s">
         <v>150</v>
       </c>
@@ -1975,7 +2500,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43651</v>
       </c>
@@ -2010,21 +2535,1064 @@
         <v>143</v>
       </c>
     </row>
-    <row r="1048569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048569" s="4"/>
+    <row r="32" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32">
+        <v>28</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33">
+        <v>72108</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I34" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43658</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G36" t="s">
+        <v>185</v>
+      </c>
+      <c r="I36" t="s">
+        <v>186</v>
+      </c>
+      <c r="J36">
+        <v>58</v>
+      </c>
+      <c r="M36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37">
+        <v>29</v>
+      </c>
+      <c r="M37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38">
+        <v>26</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39">
+        <v>84</v>
+      </c>
+      <c r="M39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4">
+        <v>43659</v>
+      </c>
+      <c r="G40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40">
+        <v>71566</v>
+      </c>
+      <c r="I40" t="s">
+        <v>190</v>
+      </c>
+      <c r="J40">
+        <v>29</v>
+      </c>
+      <c r="M40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="4">
+        <v>43665</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G41" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41">
+        <v>75203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>192</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="M41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>194</v>
+      </c>
+      <c r="I42" t="s">
+        <v>193</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="M42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="4">
+        <v>43659</v>
+      </c>
+      <c r="G43" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" t="s">
+        <v>197</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>196</v>
+      </c>
+      <c r="M43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="4">
+        <v>43659</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" t="s">
+        <v>233</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43665</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I45" t="s">
+        <v>234</v>
+      </c>
+      <c r="J45">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43664</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" t="s">
+        <v>235</v>
+      </c>
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G47" t="s">
+        <v>228</v>
+      </c>
+      <c r="H47">
+        <v>72019</v>
+      </c>
+      <c r="I47" t="s">
+        <v>227</v>
+      </c>
+      <c r="J47">
+        <v>51</v>
+      </c>
+      <c r="M47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I48" t="s">
+        <v>230</v>
+      </c>
+      <c r="J48">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49">
+        <v>71522</v>
+      </c>
+      <c r="I49" t="s">
+        <v>231</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+      <c r="L49" t="s">
+        <v>232</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G50" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50">
+        <v>71093</v>
+      </c>
+      <c r="I50" t="s">
+        <v>238</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="M50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="4">
+        <v>43665</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="4">
+        <v>43667</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G52" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J52">
+        <v>14</v>
+      </c>
+      <c r="M52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" t="s">
+        <v>246</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54">
+        <v>75433</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="M54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4">
+        <v>43665</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H55">
+        <v>75203</v>
+      </c>
+      <c r="I55" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55">
+        <v>14</v>
+      </c>
+      <c r="M55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G56" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" t="s">
+        <v>258</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="L56" t="s">
+        <v>259</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G57" t="s">
+        <v>260</v>
+      </c>
+      <c r="I57" t="s">
+        <v>261</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="G58" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58">
+        <v>30</v>
+      </c>
+      <c r="M58" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G59" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" t="s">
+        <v>266</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="L59" t="s">
+        <v>267</v>
+      </c>
+      <c r="M59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G60" t="s">
+        <v>268</v>
+      </c>
+      <c r="I60" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60">
+        <v>47</v>
+      </c>
+      <c r="M60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="4">
+        <v>43667</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" t="s">
+        <v>271</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="4">
+        <v>43666</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="G62" t="s">
+        <v>273</v>
+      </c>
+      <c r="I62" t="s">
+        <v>274</v>
+      </c>
+      <c r="J62">
+        <v>18</v>
+      </c>
+      <c r="M62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s">
+        <v>275</v>
+      </c>
+      <c r="H63">
+        <v>71155</v>
+      </c>
+      <c r="I63" t="s">
+        <v>276</v>
+      </c>
+      <c r="J63">
+        <v>7</v>
+      </c>
+      <c r="M63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1048570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048570" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17"/>
+  <autoFilter ref="A1:M63">
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2019" month="7" day="20" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A129"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" activeCellId="7" sqref="A115 A117 A119 A121 A123 A125 A127 A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,6 +3900,341 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2349,6 +4252,23 @@
     <hyperlink ref="A57" r:id="rId11"/>
     <hyperlink ref="A59" r:id="rId12"/>
     <hyperlink ref="A61" r:id="rId13"/>
+    <hyperlink ref="A82" r:id="rId14"/>
+    <hyperlink ref="A84" r:id="rId15"/>
+    <hyperlink ref="A86" r:id="rId16"/>
+    <hyperlink ref="A68" r:id="rId17"/>
+    <hyperlink ref="A78" r:id="rId18"/>
+    <hyperlink ref="A72" r:id="rId19"/>
+    <hyperlink ref="A80" r:id="rId20"/>
+    <hyperlink ref="A88" r:id="rId21"/>
+    <hyperlink ref="A90" r:id="rId22"/>
+    <hyperlink ref="A114" r:id="rId23"/>
+    <hyperlink ref="A116" r:id="rId24"/>
+    <hyperlink ref="A118" r:id="rId25"/>
+    <hyperlink ref="A120" r:id="rId26"/>
+    <hyperlink ref="A122" r:id="rId27"/>
+    <hyperlink ref="A124" r:id="rId28"/>
+    <hyperlink ref="A126" r:id="rId29"/>
+    <hyperlink ref="A128" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="281">
   <si>
     <t>Zeitung</t>
   </si>
@@ -1092,6 +1092,23 @@
   </si>
   <si>
     <t xml:space="preserve">Hildrizhauser Str. </t>
+  </si>
+  <si>
+    <t>Stellplatzflohmarkt, Statt Garagen- Stellplatzflohmarkt; nur bei trockenem Wetter! Wir bieten Ueberzähliges aus Familienhaushalt z.B.: Buecher, Kleidung, Deko, Kindersachen,... 14:30 - 17:30 Uhr im Hopfengartenweg 32, ES-Serach</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung von Do. 28.7.
+bis Fr. 26.7. jew. von 10:20 Uhr
+den 28.7. von 12—18 Uhr
+Pfah\buh\stl 7/1 in Weinstadt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50473661.jpg</t>
+  </si>
+  <si>
+    <t>Haustiohmarkt am 17.8. m Bäder
+ör 6, Wa\bhngen von 10 bis ca.
+@ Uhr. Tel. (0 71 51) 1 56 74</t>
   </si>
 </sst>
 </file>
@@ -3589,10 +3606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A129"/>
+  <dimension ref="A1:A133"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A129" activeCellId="7" sqref="A115 A117 A119 A121 A123 A125 A127 A129"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,6 +4252,26 @@
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4269,6 +4306,7 @@
     <hyperlink ref="A124" r:id="rId28"/>
     <hyperlink ref="A126" r:id="rId29"/>
     <hyperlink ref="A128" r:id="rId30"/>
+    <hyperlink ref="A132" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Anzeigen" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="303">
   <si>
     <t>Zeitung</t>
   </si>
@@ -1109,6 +1109,72 @@
     <t>Haustiohmarkt am 17.8. m Bäder
 ör 6, Wa\bhngen von 10 bis ca.
 @ Uhr. Tel. (0 71 51) 1 56 74</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung, Am 03.08 in 73249 Wernau, Uhlandstr. 58, von 14-17.</t>
+  </si>
+  <si>
+    <t>Wohnungsauflösung , Sa 3.8. 11-15Uhr Kirchheim Armbruststr. 5/1 Ledermöbel, Kleinmöbel, Geschirr, Deko,Bilder.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Flohmarkt-Haus-Garage-4819-von-10-16-Uhr-Allerlei-aus-50-v3-w1024-h-m134982.jpg</t>
+  </si>
+  <si>
+    <t>Flohmarkt (Haus &amp; Garage) 4.8.19 von 10—16 Uhr. Allerlei aus 50 Jahren! Tulpenweg 1, 72119 Pfäffingen.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Garagenflohmarkt-am-3819-v3-w1024-h-m135010.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt am 3.8.19, 14—16 Uhr. Kleinmöbel, Haushaltsartikel, div.. Roßbergstr. 5, 72810 Gomaringen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50473663.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung von Do. 28.7.  bis Fr. 26.7. jew. von 10:20 Uhr den 28.7. von 12—18 Uhr  Pfah\buh\stl 7/1 in Weinstadt</t>
+  </si>
+  <si>
+    <t>Haustiohmarkt am 11.8. m Bäder ör 6, Wa\bhngen von 10 bis ca. @ Uhr. Tel. (0 71 51) 1 56 74</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5217/2608579_1_orgorg_5d40cec9a6279.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt  am Sa., 3. 8. 19 ab 10.30 Uhr, Wach— telgasse/Pflügerstr., Haushaltswaren, Kleidung Gr. 40—44, Schuhe 39—41, Elektroartikel. Tel. 07231/7769652</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5217/2608519_1_orgorg_5d40ceb8b42c8.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf  am Samstag 3.08. Antike Möbel, Ge— brauchtmöbel, Reste der Schreinerei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichelberg, Kirchweg 4, von 10 bis 19 Uhr.  Telefon 0172—2904292</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5198/2599380_2_orgorg_5d379405a0247.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf  am 20.07.19 und 27.07.19: Antike Möbel, Gebrauchtmöbel, Reste der Schreinerei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichel— berg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172/2904292</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5201/2600753_375_orgorg_5d3efa0127a91.jpg</t>
+  </si>
+  <si>
+    <t>Garagenflohmarkt  am Sa., 27. 7., ab 10 Uhr, Landhaus— str. 26/1, Straubenhardt—Conweiler, Möbel, Haushaltswaren, Elektroarti— kel, Kleidung...</t>
+  </si>
+  <si>
+    <t>8) Haushaltsauflösung -  Alles muss raus! am Sa., 3.8.19, v. 9-15 Uhr, Bissingen, Bahnhofstr. 92, Möbel, Lampen, Bilder, Geschirr, Werkzeug - super günstig!</t>
+  </si>
+  <si>
+    <t>17) Haushaltsauflösung-Erbnachlass  am Sa. 27.07.2019 von 11.00 bis 18.00 Uhr, Kleinsachsenheim, Zeppelinstr. 1.  Ölbilder u. Krügersammlungen.</t>
+  </si>
+  <si>
+    <t>24) Hausflohmarkt in Großsachsenheim.  Hohestr. 36 am Samstag, 27.7.19.  Möbel, Kleingeräte, Kleider usw. ab 12.00 - 18.00 Uhr.</t>
+  </si>
+  <si>
+    <t>34) Garagenflohmarkt Bietigheim/Buch, Camberleystr. 47. Am 20.7.2019 v. 10-17 Uhr: Bekleidung, Haushaltswaren, Bücher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35) Flohmarkt am 20.7.2019; von 11-18Uhr, Gro&amp;#195;&amp;#191;sachsenheim, Traunreuterstr.6  </t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,6 +1225,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1173,7 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1194,11 +1266,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1504,7 +1578,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M1048570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
@@ -3163,7 +3237,7 @@
       <c r="I50" t="s">
         <v>238</v>
       </c>
-      <c r="J50" s="13" t="s">
+      <c r="J50" s="12" t="s">
         <v>242</v>
       </c>
       <c r="M50" t="s">
@@ -3535,7 +3609,7 @@
       <c r="A62" s="4">
         <v>43665</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>272</v>
       </c>
       <c r="C62" t="s">
@@ -3567,7 +3641,7 @@
       <c r="A63" s="4">
         <v>43665</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>272</v>
       </c>
       <c r="C63" t="s">
@@ -3606,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A133"/>
+  <dimension ref="A1:A157"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,7 +3994,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="15" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4045,7 +4119,7 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="16" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4255,7 +4329,7 @@
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="15" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4272,6 +4346,126 @@
     <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4307,6 +4501,8 @@
     <hyperlink ref="A126" r:id="rId29"/>
     <hyperlink ref="A128" r:id="rId30"/>
     <hyperlink ref="A132" r:id="rId31"/>
+    <hyperlink ref="A143" r:id="rId32"/>
+    <hyperlink ref="A145" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bausteine/Anzeigen_Flohmarkt.xlsx
+++ b/Bausteine/Anzeigen_Flohmarkt.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="346">
   <si>
     <t>Zeitung</t>
   </si>
@@ -1176,11 +1176,143 @@
   <si>
     <t xml:space="preserve">35) Flohmarkt am 20.7.2019; von 11-18Uhr, Gro&amp;#195;&amp;#191;sachsenheim, Traunreuterstr.6  </t>
   </si>
+  <si>
+    <t>Waiblinger Wochenblatt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50486168.jpg</t>
+  </si>
+  <si>
+    <t>Baragenwerkauf: Sa. 10.8.19 ab 0 Uhr, von Design bis Nützlich, Kleidung, Schuhe, Geschir, Deko, Nippes. Ludwigstr. 12, Schorndort</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50487335.jpg</t>
+  </si>
+  <si>
+    <t>Wonnungsauflösung in Herglen Öschelbronn, Nelkenstr. 21 am Samstag 10.8.19 von 11 — 15 Uhr</t>
+  </si>
+  <si>
+    <t>Esslinger Zeitung</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung komplett am Sa. 17.8.19 von 10-16h, Haushaltswaren, Deko, Möbel. Weilerweg 37 in ES, % 0176-52345891</t>
+  </si>
+  <si>
+    <t>Schwäbisches Tagblatt</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-v3-w1024-h-m136039.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung, Jutta Jüptner, Scheibenhalde 18, Horb—Nordstetten  am Sa., 17.8., 9:00—17:00 Uhr; So. 18. 8., 9:00—12:00 Uhr</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/7618848-1pdf-v3-w1024-h-m135921.jpg</t>
+  </si>
+  <si>
+    <t>Alles muss raus!! Hausflohmarkt am 17.08.19 von 10 — 18 Uhr Dusslingen, Hechinger Str. 36</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-Flohmarkt-Samstag-170819-zw-9-und-11-v3-w1024-h-m136027.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung — Flohmarkt, Samstag, 17.08.19, zw. 9 und 11 Uhr TÜ—Derendingen, Kanalstr. 10</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50508571.jpg</t>
+  </si>
+  <si>
+    <t>Scheunenflohmarkt, Geschenk und Dekoartikel Wo: Uichstraße 5 73663 Berglen—Odernhardt</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50509557.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung/Flohmarkt (zum zweiten Mal) in Backnang, Friedrich—List—Sit. 51 am 17.8 ab 10 Uhr bis ca. 18.00 Uhr. Viele Ar—  tikel sind dazugekommen: Deko, Geschir, Bücher, Lego, Taschen, Kleidung, Vieles für 0,50/1 Euro!</t>
+  </si>
+  <si>
+    <t>Plochingen 24.8., Haushaltsauflösung von 10-16 Uhr Im Burris 8. Verkaufen Bilder, Porzellan, Geschirr, Tupperware, Haushaltswaren, Holz-Möbel, Sitzgarnituren, Stühle, Glaswaren, Mäntel/ Pelze, Gobelin, Häkeldeckchen, Bettwäsche, altes Werkzeug, Metallwaren, Lampen, Teppiche usw.</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-in-Tuebingen-Alles-muss-raus-Z-01525-v5-w1024-h-m136487.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung in Tübingen Alles muss raus. &amp; 01525—5754993</t>
+  </si>
+  <si>
+    <t>https://www.mein-mittwochmarkt.de/Marktplatz/Motif/Haushaltsaufloesung-v5-w1024-h-m136467.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung, 31.8., TU—West, Dürrstr. 35, v. 11 bis 17 Uhr. Kleinmöbel, Haushaltswaren, Lampen, Antikes, orig. Lithographien, orig. Drucke u.v.m.</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521538.jpg</t>
+  </si>
+  <si>
+    <t>Antiker Garagenflohmart &amp; bei, Stühle, Vertiko, Schränke etc. Tel.: 017219808446</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521474.jpg</t>
+  </si>
+  <si>
+    <t>Scheunenflohmarkt Deko— und Geschenkartikel, Schulbedart Schreibwaren, täglich 9—18 Uhr Urichstt 73663 Berglen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50517879.jpg</t>
+  </si>
+  <si>
+    <t>Flohmarkt wg Umzug in Auen— wald.Häfnersweg  6, am Freitag 23.8.von 11 bis 18 Uhr Verkauft und verschenkt werden Spielwaren, Be— kleidung sowie einzelne Möbelstü cke und Küchenschränke</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50521394.jpg</t>
+  </si>
+  <si>
+    <t>Garagentlohmarkt, Sa 24.08.18 Ostlandetr. 6, 73553 Alfdorf,  —16 Uhr ‚Hausrat, Kleinmöbel, Taschen, Verschiedenes</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50520397.jpg</t>
+  </si>
+  <si>
+    <t>Haushaltsauflösung div. Elekto geräte, Möbel, Küche, Werkzeuge vieles mehr Tel. 0151 /17 96 64 96</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50514603.jpg</t>
+  </si>
+  <si>
+    <t>Bartentronmarkt für Sroß und Klein, bei einer Tasse Kaffee am So 25.08.19, 10—16 Uhr Jakob—Schüle— Str. 78 (Zugang über Hölderins— weg) Plüderhausen</t>
+  </si>
+  <si>
+    <t>https://pl.zvw.de/dig/anzmarkt/anzeigenimages/t/50509806.jpg</t>
+  </si>
+  <si>
+    <t>WMohnungsauflösung 2. Versuch, alles zu verschenken, 24.08.19, 09.00 — 13.00 Uhr, Schilerstr. 12. 71384 Schnait</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5264/2632111_1_advertsearch_5d5c7e53bf96b.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf am Samstag 24.08. Antike Möbel, Gebrauchtmöbel, Reste der Schreine— rei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichelberg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172—2904292</t>
+  </si>
+  <si>
+    <t>https://www.pz-news.de/cms_media/module_img/5249/2624824_2_advertsearch_5d57384b06478.jpg</t>
+  </si>
+  <si>
+    <t>Haus—Räumungsverkauf am Samstag 17.08. Antike Möbel, Gebrauchtmöbel, Reste der Schreine— rei, Maschinen, Baumaterial, Trödel uvm. In Bad Wildbad Aichelberg, Kirchweg 4, von 10 bis 19 Uhr. Telefon 0172—2904292</t>
+  </si>
+  <si>
+    <t>14) Praxisaufl&amp;#195;&amp;#182;sung (inkl. M&amp;#195;&amp;#182;bel), Samstag, 24.08.2019, 16 - 18 Uhr, Hans-Sachs-Str. 5, 74343 Sachsenheim, neue Praxis Nr. ab sofort # 0163 - 1734592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16) wegen Haushaltsaufl&amp;#195;&amp;#182;sung Samstag, 24.8.19 von 14-18 Uhr Bietigheim/Buch, Tulpenweg 24  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1245,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,7 +1394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1273,6 +1404,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2654,7 +2787,7 @@
       <c r="J32">
         <v>28</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3237,7 +3370,7 @@
       <c r="I50" t="s">
         <v>238</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="11" t="s">
         <v>242</v>
       </c>
       <c r="M50" t="s">
@@ -3609,7 +3742,7 @@
       <c r="A62" s="4">
         <v>43665</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C62" t="s">
@@ -3641,7 +3774,7 @@
       <c r="A63" s="4">
         <v>43665</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C63" t="s">
@@ -3680,13 +3813,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A157"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3994,7 +4130,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4119,7 +4255,7 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4329,7 +4465,7 @@
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4349,7 +4485,7 @@
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="14" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4403,69 +4539,509 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="17">
+        <v>43686</v>
+      </c>
+      <c r="B158" t="s">
+        <v>303</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="16">
+        <v>43686</v>
+      </c>
+      <c r="B159" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="16">
+        <v>43686</v>
+      </c>
+      <c r="B160" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="16">
+        <v>43686</v>
+      </c>
+      <c r="B161" t="s">
+        <v>303</v>
+      </c>
+      <c r="C161" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B162" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B163" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B164" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B166" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B167" t="s">
+        <v>310</v>
+      </c>
+      <c r="C167" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B168" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B169" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B170" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B171" t="s">
+        <v>303</v>
+      </c>
+      <c r="C171" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B174" t="s">
+        <v>310</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B175" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B176" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B178" t="s">
+        <v>303</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B179" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B180" t="s">
+        <v>303</v>
+      </c>
+      <c r="C180" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B181" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B182" t="s">
+        <v>303</v>
+      </c>
+      <c r="C182" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B183" t="s">
+        <v>303</v>
+      </c>
+      <c r="C183" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B184" t="s">
+        <v>303</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B185" t="s">
+        <v>303</v>
+      </c>
+      <c r="C185" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B186" t="s">
+        <v>303</v>
+      </c>
+      <c r="C186" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B187" t="s">
+        <v>303</v>
+      </c>
+      <c r="C187" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B188" t="s">
+        <v>303</v>
+      </c>
+      <c r="C188" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B189" t="s">
+        <v>303</v>
+      </c>
+      <c r="C189" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B190" t="s">
+        <v>303</v>
+      </c>
+      <c r="C190" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B191" t="s">
+        <v>303</v>
+      </c>
+      <c r="C191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B192" t="s">
+        <v>146</v>
+      </c>
+      <c r="C192" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B193" t="s">
+        <v>146</v>
+      </c>
+      <c r="C193" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B195" t="s">
+        <v>146</v>
+      </c>
+      <c r="C195" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B196" t="s">
+        <v>195</v>
+      </c>
+      <c r="C196" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="16">
+        <v>43700</v>
+      </c>
+      <c r="B197" t="s">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4503,6 +5079,12 @@
     <hyperlink ref="A132" r:id="rId31"/>
     <hyperlink ref="A143" r:id="rId32"/>
     <hyperlink ref="A145" r:id="rId33"/>
+    <hyperlink ref="C158" r:id="rId34"/>
+    <hyperlink ref="C160" r:id="rId35"/>
+    <hyperlink ref="C174" r:id="rId36"/>
+    <hyperlink ref="C176" r:id="rId37"/>
+    <hyperlink ref="C178" r:id="rId38"/>
+    <hyperlink ref="C184" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
